--- a/SetList/xlsx/beyonds.xlsx
+++ b/SetList/xlsx/beyonds.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9814D387-CD97-4D43-B5A2-E2E08D080BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="38420" yWindow="500" windowWidth="38380" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="1" r:id="rId4"/>
+    <sheet name="22 〜もういっちょどんと来い! BE HAPPY!〜" sheetId="2" r:id="rId1"/>
+    <sheet name="22 ～どんと来い! BE HAPPY!～" sheetId="1" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
   <si>
     <t>項番</t>
   </si>
@@ -25,26 +35,259 @@
     <t>メンバー</t>
   </si>
   <si>
-    <t>準備中</t>
+    <t>英雄〜笑って！ショパン先輩〜</t>
+    <rPh sb="0" eb="2">
+      <t>エイユ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワラッテ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虎視タンタ・ターン</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トラ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">シ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go Waist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニッポンのD・N・A！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤバイ恋の刃</t>
+    <rPh sb="3" eb="4">
+      <t>コイノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヤイバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨ノ森川海</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アメ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メドレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこらのやつとは同じにされたくない</t>
+    <rPh sb="8" eb="9">
+      <t>オナジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GIRL ZONE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワタシと踊りなさい！</t>
+    <rPh sb="4" eb="5">
+      <t>オドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SeasoningS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>We Need a Name！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高輪ゲートウェイ駅ができる頃には</t>
+    <rPh sb="0" eb="2">
+      <t>タカナワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コロニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHICA#TETSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二年前の横浜駅西口</t>
+    <rPh sb="0" eb="3">
+      <t>ニネn</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヨコハマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニシグティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都営大江戸線の六本木駅で抱きしめて</t>
+    <rPh sb="0" eb="6">
+      <t>トエイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ロッポn</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダキシメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眼鏡の男の子</t>
+    <rPh sb="0" eb="2">
+      <t>メガネ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文化祭実行委員長の恋</t>
+    <rPh sb="0" eb="8">
+      <t>ブンカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋のおスウィング</t>
+    <rPh sb="0" eb="1">
+      <t>コイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元年バンジージャンプ</t>
+    <rPh sb="0" eb="2">
+      <t>ガンネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんなハズジャナカッター！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>激辛LOVE</t>
+    <rPh sb="0" eb="2">
+      <t>ゲキカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハムカツ黙示録</t>
+    <rPh sb="4" eb="7">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛奉行</t>
+    <rPh sb="0" eb="1">
+      <t>ノオスウィング</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>涙のカスタネット</t>
+    <rPh sb="0" eb="1">
+      <t>ナミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビタミンME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレフレ・エブリデイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アツイ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンリーロンリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Now Now Nigngen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きのこたけのこ大戦記</t>
+    <rPh sb="7" eb="10">
+      <t>ダイセn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="6"/>
+      <name val="Noto Sans JP Black"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,49 +329,113 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -330,7 +637,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -349,7 +656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -379,7 +686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -405,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -431,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -457,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -483,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -509,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -535,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -561,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -587,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -600,9 +907,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -619,7 +932,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -638,7 +951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,9 +1198,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -901,7 +1220,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -920,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,7 +1425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,7 +1451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1477,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,62 +1490,787 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3E8545-D972-664C-A2AB-E8B10C5477A9}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>

--- a/SetList/xlsx/beyonds.xlsx
+++ b/SetList/xlsx/beyonds.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9814D387-CD97-4D43-B5A2-E2E08D080BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CF293C-2B0B-9646-AEB2-08C96BDECB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38420" yWindow="500" windowWidth="38380" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="22 〜もういっちょどんと来い! BE HAPPY!〜" sheetId="2" r:id="rId1"/>
-    <sheet name="22 ～どんと来い! BE HAPPY!～" sheetId="1" r:id="rId2"/>
+    <sheet name="22 ～天高く、ビヨ燃ゆる秋～" sheetId="3" r:id="rId1"/>
+    <sheet name="22 〜もういっちょどんと来い! BE HAPPY!〜" sheetId="2" r:id="rId2"/>
+    <sheet name="22 ～どんと来い! BE HAPPY!～" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="49">
   <si>
     <t>項番</t>
   </si>
@@ -262,6 +263,96 @@
     <t>きのこたけのこ大戦記</t>
     <rPh sb="7" eb="10">
       <t>ダイセn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hey！ビヨンダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Now Now Ningen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待ち合わせはJR梅田駅で</t>
+    <rPh sb="0" eb="1">
+      <t>マチアワセ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Get Back！ビニール傘の大冒険</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">カサ </t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ダイボウケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>循環</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="1">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Never Never know〜コメ派とパン派のラブウォーズ〜</t>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">ハ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">ハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハムカツ黙示録</t>
+    <rPh sb="0" eb="3">
+      <t>ハムカツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">モクジ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GOGO大臣</t>
+    <rPh sb="4" eb="6">
+      <t>ダイジn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>涙のカスタネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛奉行</t>
+    <rPh sb="0" eb="4">
+      <t>レn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伸びしろ〜Beyond the World〜</t>
+    <rPh sb="0" eb="1">
+      <t>ノビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1508,10 +1599,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A24B2DF-D32C-4145-ADAF-B87C3B3C1352}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3E8545-D972-664C-A2AB-E8B10C5477A9}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1885,7 +2256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
